--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,27 +428,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Thermocycler LOGFILE</t>
+          <t>Thermocycler Prüfbericht</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>generated bei Thermocycler.py</t>
+          <t>erzeugt von View.py (Thermocycler)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Date:</t>
+          <t>Zeitstempel:</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -463,18 +463,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Temp-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Remarks</t>
+          <t>Zyklen</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45160.39747377763</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -482,7 +477,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45160.39747378292</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
@@ -490,7 +485,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45160.39747378397</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B8" t="n">
         <v>10</v>
@@ -498,7 +493,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45160.39747378493</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B9" t="n">
         <v>11</v>
@@ -506,7 +501,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45160.39747378587</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
@@ -514,7 +509,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45160.3974737868</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B11" t="n">
         <v>13</v>
@@ -522,7 +517,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45160.39747378772</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B12" t="n">
         <v>14</v>
@@ -530,7 +525,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45160.39747378862</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B13" t="n">
         <v>15</v>
@@ -538,7 +533,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45160.39747378956</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B14" t="n">
         <v>16</v>
@@ -546,7 +541,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45160.39747379061</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B15" t="n">
         <v>17</v>
@@ -554,7 +549,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45160.39747379155</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B16" t="n">
         <v>18</v>
@@ -562,7 +557,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45160.39747379248</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B17" t="n">
         <v>19</v>
@@ -570,7 +565,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45160.39747379338</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B18" t="n">
         <v>20</v>
@@ -578,7 +573,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45160.39747379427</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B19" t="n">
         <v>21</v>
@@ -586,7 +581,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45160.39747379517</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B20" t="n">
         <v>22</v>
@@ -594,7 +589,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45160.39747379607</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B21" t="n">
         <v>23</v>
@@ -602,7 +597,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45160.39747379697</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B22" t="n">
         <v>24</v>
@@ -610,7 +605,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45160.39747379785</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B23" t="n">
         <v>25</v>
@@ -618,7 +613,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45160.39747379876</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B24" t="n">
         <v>26</v>
@@ -626,7 +621,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45160.39747379964</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B25" t="n">
         <v>27</v>
@@ -634,7 +629,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45160.39747380053</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B26" t="n">
         <v>28</v>
@@ -642,7 +637,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45160.39747380141</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B27" t="n">
         <v>29</v>
@@ -650,7 +645,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45160.3974738023</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B28" t="n">
         <v>30</v>
@@ -658,7 +653,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45160.3974738032</v>
+        <v>45317.88975502237</v>
       </c>
       <c r="B29" t="n">
         <v>31</v>
